--- a/Ideas/Intense_check/stats.xlsx
+++ b/Ideas/Intense_check/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Rimworld\Mods_Disass\Outfitted\Ideas\Intense_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F499EC-8D47-4AFC-95D7-C7022CB082F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2842FB-E7D6-430C-A33A-33D044CB32D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4A9C516D-C4DF-4520-ACC6-B6ECE04DA647}"/>
   </bookViews>
@@ -965,7 +965,7 @@
   <dimension ref="B2:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
